--- a/data/Metadata Gazulla et al 2024 L&O.xlsx
+++ b/data/Metadata Gazulla et al 2024 L&O.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlotarg/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F6E62-0B07-AF42-9AB6-A250C84A37E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F992E1B4-322E-964C-BCE0-8FE036F25250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{F3B65F0E-B1D3-1047-941A-BE5125915802}"/>
   </bookViews>
